--- a/Annotations/New/TheWayOfKings.xlsx
+++ b/Annotations/New/TheWayOfKings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1956" windowHeight="12372" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1956" windowHeight="12372"/>
   </bookViews>
   <sheets>
     <sheet name="waykings" sheetId="1" r:id="rId1"/>
@@ -1907,15 +1907,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P316"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F318" sqref="F318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="56.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="54.33203125" style="2" customWidth="1"/>
@@ -1980,7 +1980,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>1.4878366289948985E-2</v>
+        <v>0.57993036561412858</v>
       </c>
       <c r="B2" s="2">
         <v>156</v>
@@ -2007,7 +2007,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7706380677104985E-3</v>
+        <v>0.51146512861814974</v>
       </c>
       <c r="B3" s="2">
         <v>39</v>
@@ -2031,7 +2031,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29058274211522461</v>
+        <v>0.3590147224739243</v>
       </c>
       <c r="B4" s="2">
         <v>37</v>
@@ -2052,7 +2052,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23863412070358236</v>
+        <v>0.36668214151208456</v>
       </c>
       <c r="B5" s="2">
         <v>74</v>
@@ -2076,7 +2076,7 @@
     <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38322886993908656</v>
+        <v>0.42777541968526667</v>
       </c>
       <c r="B6" s="2">
         <v>259</v>
@@ -2097,7 +2097,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66894158848249641</v>
+        <v>0.1188546091671745</v>
       </c>
       <c r="B7" s="2">
         <v>275</v>
@@ -2118,7 +2118,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31264314312614117</v>
+        <v>0.21899841584712565</v>
       </c>
       <c r="B8" s="2">
         <v>292</v>
@@ -2142,7 +2142,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78461382617460707</v>
+        <v>0.19191582920913164</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -2166,7 +2166,7 @@
     <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48944933202325847</v>
+        <v>0.48191838016816779</v>
       </c>
       <c r="B10" s="2">
         <v>202</v>
@@ -2190,7 +2190,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1514901606906056E-2</v>
+        <v>0.12409943970013138</v>
       </c>
       <c r="B11" s="2">
         <v>289</v>
@@ -2214,7 +2214,7 @@
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62141122680699101</v>
+        <v>0.80396174198765458</v>
       </c>
       <c r="B12" s="2">
         <v>38</v>
@@ -2235,7 +2235,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4399886529461422</v>
+        <v>0.51691507565974837</v>
       </c>
       <c r="B13" s="2">
         <v>63</v>
@@ -2256,7 +2256,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76481578038950315</v>
+        <v>0.82393486454066256</v>
       </c>
       <c r="B14" s="2">
         <v>245</v>
@@ -2277,7 +2277,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10989490370805255</v>
+        <v>0.34239980378107515</v>
       </c>
       <c r="B15" s="2">
         <v>82</v>
@@ -2301,7 +2301,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5126021752853176E-2</v>
+        <v>0.66278928764323386</v>
       </c>
       <c r="B16" s="2">
         <v>171</v>
@@ -2322,7 +2322,7 @@
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78250573886694619</v>
+        <v>0.82554320008703774</v>
       </c>
       <c r="B17" s="2">
         <v>213</v>
@@ -2343,7 +2343,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74754074213974608</v>
+        <v>0.94969678162367499</v>
       </c>
       <c r="B18" s="2">
         <v>255</v>
@@ -2367,7 +2367,7 @@
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49930725520233987</v>
+        <v>0.76782574943193438</v>
       </c>
       <c r="B19" s="2">
         <v>221</v>
@@ -2388,7 +2388,7 @@
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69774442485693922</v>
+        <v>0.55388976023643655</v>
       </c>
       <c r="B20" s="2">
         <v>86</v>
@@ -2409,7 +2409,7 @@
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6240310800822138E-2</v>
+        <v>7.9425386397865338E-2</v>
       </c>
       <c r="B21" s="2">
         <v>6</v>
@@ -2430,7 +2430,7 @@
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6000030555690562</v>
+        <v>0.1516178417280335</v>
       </c>
       <c r="B22" s="2">
         <v>108</v>
@@ -2454,7 +2454,7 @@
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8542790089756922</v>
+        <v>0.77457236191652734</v>
       </c>
       <c r="B23" s="2">
         <v>210</v>
@@ -2475,7 +2475,7 @@
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2598688097136217</v>
+        <v>0.21579313592444405</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
@@ -2496,7 +2496,7 @@
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98712379825082519</v>
+        <v>0.8658745647117928</v>
       </c>
       <c r="B25" s="2">
         <v>180</v>
@@ -2520,7 +2520,7 @@
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13664899166835098</v>
+        <v>0.98364182068992312</v>
       </c>
       <c r="B26" s="2">
         <v>260</v>
@@ -2544,7 +2544,7 @@
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29945220610466594</v>
+        <v>0.27143873713757072</v>
       </c>
       <c r="B27" s="2">
         <v>35</v>
@@ -2568,7 +2568,7 @@
     <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30071627809395551</v>
+        <v>0.72056238306820941</v>
       </c>
       <c r="B28" s="2">
         <v>270</v>
@@ -2592,7 +2592,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37114288285658592</v>
+        <v>0.57492456670542524</v>
       </c>
       <c r="B29" s="2">
         <v>152</v>
@@ -2613,7 +2613,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16331533609657667</v>
+        <v>0.11354510360210202</v>
       </c>
       <c r="B30" s="2">
         <v>127</v>
@@ -2640,7 +2640,7 @@
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30251813345507028</v>
+        <v>5.4300355049295979E-3</v>
       </c>
       <c r="B31" s="2">
         <v>170</v>
@@ -2661,7 +2661,7 @@
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44126280243816218</v>
+        <v>0.40757089912595346</v>
       </c>
       <c r="B32" s="2">
         <v>261</v>
@@ -2682,7 +2682,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6824923894416393E-2</v>
+        <v>0.2338235079159926</v>
       </c>
       <c r="B33" s="2">
         <v>153</v>
@@ -2703,7 +2703,7 @@
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14115194538086151</v>
+        <v>0.33509888832933366</v>
       </c>
       <c r="B34" s="2">
         <v>84</v>
@@ -2724,7 +2724,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72782071912907542</v>
+        <v>0.48421977712276942</v>
       </c>
       <c r="B35" s="2">
         <v>61</v>
@@ -2748,7 +2748,7 @@
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68368059424884287</v>
+        <v>0.54543330361830666</v>
       </c>
       <c r="B36" s="2">
         <v>111</v>
@@ -2772,7 +2772,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72651287246548413</v>
+        <v>0.40823115296505885</v>
       </c>
       <c r="B37" s="2">
         <v>276</v>
@@ -2793,7 +2793,7 @@
     <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6238172213720431</v>
+        <v>0.20695742833450781</v>
       </c>
       <c r="B38" s="2">
         <v>158</v>
@@ -2820,7 +2820,7 @@
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15225600372775172</v>
+        <v>2.9589091186835503E-2</v>
       </c>
       <c r="B39" s="2">
         <v>172</v>
@@ -2844,7 +2844,7 @@
     <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78948719977940818</v>
+        <v>0.30174467797464666</v>
       </c>
       <c r="B40" s="2">
         <v>239</v>
@@ -2871,7 +2871,7 @@
     <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31512139930850547</v>
+        <v>0.28855791050608182</v>
       </c>
       <c r="B41" s="2">
         <v>115</v>
@@ -2892,7 +2892,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30573274099730785</v>
+        <v>6.6948538562281446E-3</v>
       </c>
       <c r="B42" s="2">
         <v>107</v>
@@ -2913,7 +2913,7 @@
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62482717508139796</v>
+        <v>0.5510556968393705</v>
       </c>
       <c r="B43" s="2">
         <v>219</v>
@@ -2934,7 +2934,7 @@
     <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0153896713591792E-2</v>
+        <v>0.84949606929952926</v>
       </c>
       <c r="B44" s="2">
         <v>268</v>
@@ -2958,7 +2958,7 @@
     <row r="45" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75147350516774547</v>
+        <v>0.51434891703640728</v>
       </c>
       <c r="B45" s="2">
         <v>204</v>
@@ -2982,7 +2982,7 @@
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71784960319399804</v>
+        <v>0.14748566577770694</v>
       </c>
       <c r="B46" s="2">
         <v>157</v>
@@ -3006,7 +3006,7 @@
     <row r="47" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46430391336744159</v>
+        <v>0.78505256010193425</v>
       </c>
       <c r="B47" s="2">
         <v>175</v>
@@ -3030,7 +3030,7 @@
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8039642139745159</v>
+        <v>0.96874830029969139</v>
       </c>
       <c r="B48" s="2">
         <v>112</v>
@@ -3051,7 +3051,7 @@
     <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61960852221715967</v>
+        <v>0.98129747068938578</v>
       </c>
       <c r="B49" s="2">
         <v>11</v>
@@ -3072,7 +3072,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38260535888276559</v>
+        <v>0.26376220151774188</v>
       </c>
       <c r="B50" s="2">
         <v>90</v>
@@ -3096,7 +3096,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20977907752416625</v>
+        <v>6.3456797990257718E-2</v>
       </c>
       <c r="B51" s="2">
         <v>83</v>
@@ -3120,7 +3120,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83944087162718406</v>
+        <v>0.61517051003748469</v>
       </c>
       <c r="B52" s="2">
         <v>28</v>
@@ -3141,7 +3141,7 @@
     <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2019756497167586E-2</v>
+        <v>0.23738602323572144</v>
       </c>
       <c r="B53" s="2">
         <v>181</v>
@@ -3165,7 +3165,7 @@
     <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20670304977946052</v>
+        <v>0.7152513339204789</v>
       </c>
       <c r="B54" s="2">
         <v>138</v>
@@ -3189,7 +3189,7 @@
     <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47837009224321791</v>
+        <v>4.4007826763632019E-2</v>
       </c>
       <c r="B55" s="2">
         <v>286</v>
@@ -3213,7 +3213,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23869820419728671</v>
+        <v>0.5094818043235827</v>
       </c>
       <c r="B56" s="2">
         <v>297</v>
@@ -3234,7 +3234,7 @@
     <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7339136085123632</v>
+        <v>0.6621576185392225</v>
       </c>
       <c r="B57" s="2">
         <v>218</v>
@@ -3255,7 +3255,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3716140892892126E-2</v>
+        <v>9.7506722449107408E-2</v>
       </c>
       <c r="B58" s="2">
         <v>189</v>
@@ -3276,7 +3276,7 @@
     <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40939721645558202</v>
+        <v>0.2789898239012818</v>
       </c>
       <c r="B59" s="2">
         <v>116</v>
@@ -3297,7 +3297,7 @@
     <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64056402262970136</v>
+        <v>0.95960114687875886</v>
       </c>
       <c r="B60" s="2">
         <v>81</v>
@@ -3321,7 +3321,7 @@
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43705707693692519</v>
+        <v>0.35223222675453802</v>
       </c>
       <c r="B61" s="2">
         <v>161</v>
@@ -3342,7 +3342,7 @@
     <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48851983717769931</v>
+        <v>7.4565798395964333E-2</v>
       </c>
       <c r="B62" s="2">
         <v>163</v>
@@ -3366,7 +3366,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9830683392415818E-2</v>
+        <v>0.30001558383394888</v>
       </c>
       <c r="B63" s="2">
         <v>235</v>
@@ -3390,7 +3390,7 @@
     <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85860111762465374</v>
+        <v>0.18527194672366709</v>
       </c>
       <c r="B64" s="2">
         <v>44</v>
@@ -3411,7 +3411,7 @@
     <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88041165530573251</v>
+        <v>0.20919130796421703</v>
       </c>
       <c r="B65" s="2">
         <v>237</v>
@@ -3432,7 +3432,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.24722901319867674</v>
+        <v>0.37543523864302419</v>
       </c>
       <c r="B66" s="2">
         <v>67</v>
@@ -3456,7 +3456,7 @@
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52166054419471664</v>
+        <v>0.87421459057251738</v>
       </c>
       <c r="B67" s="2">
         <v>214</v>
@@ -3480,7 +3480,7 @@
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8282949143792383</v>
+        <v>0.8808428946315614</v>
       </c>
       <c r="B68" s="2">
         <v>16</v>
@@ -3501,7 +3501,7 @@
     <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76201414142350898</v>
+        <v>0.78271731856649862</v>
       </c>
       <c r="B69" s="2">
         <v>14</v>
@@ -3525,7 +3525,7 @@
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83798912613827903</v>
+        <v>0.80101698671050836</v>
       </c>
       <c r="B70" s="2">
         <v>110</v>
@@ -3546,7 +3546,7 @@
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99856159292701829</v>
+        <v>0.92401791643005116</v>
       </c>
       <c r="B71" s="2">
         <v>230</v>
@@ -3567,7 +3567,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21335734275569918</v>
+        <v>0.96865305502764354</v>
       </c>
       <c r="B72" s="2">
         <v>24</v>
@@ -3588,7 +3588,7 @@
     <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39041642441247582</v>
+        <v>0.55312902154345844</v>
       </c>
       <c r="B73" s="2">
         <v>197</v>
@@ -3612,7 +3612,7 @@
     <row r="74" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36118344579516537</v>
+        <v>0.78003458041920615</v>
       </c>
       <c r="B74" s="2">
         <v>176</v>
@@ -3633,7 +3633,7 @@
     <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36977362805038627</v>
+        <v>0.93865363959044523</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -3654,7 +3654,7 @@
     <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77605499279149281</v>
+        <v>0.89253441139423639</v>
       </c>
       <c r="B76" s="2">
         <v>314</v>
@@ -3678,7 +3678,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20866848504709856</v>
+        <v>1.159957478316076E-2</v>
       </c>
       <c r="B77" s="2">
         <v>32</v>
@@ -3699,7 +3699,7 @@
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29454378147322002</v>
+        <v>0.2530149843551005</v>
       </c>
       <c r="B78" s="2">
         <v>228</v>
@@ -3720,7 +3720,7 @@
     <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96903851219156767</v>
+        <v>0.70969722074009323</v>
       </c>
       <c r="B79" s="2">
         <v>59</v>
@@ -3747,7 +3747,7 @@
     <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6393216164901134E-2</v>
+        <v>0.13082418708149413</v>
       </c>
       <c r="B80" s="2">
         <v>105</v>
@@ -3774,7 +3774,7 @@
     <row r="81" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56079128190917082</v>
+        <v>0.95750231836161359</v>
       </c>
       <c r="B81" s="2">
         <v>203</v>
@@ -3798,7 +3798,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55376486881799614</v>
+        <v>0.36521655141779863</v>
       </c>
       <c r="B82" s="2">
         <v>10</v>
@@ -3822,7 +3822,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32392962840991368</v>
+        <v>3.4924255192387177E-2</v>
       </c>
       <c r="B83" s="2">
         <v>43</v>
@@ -3843,7 +3843,7 @@
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97559403501917963</v>
+        <v>0.47519642919529537</v>
       </c>
       <c r="B84" s="2">
         <v>160</v>
@@ -3864,7 +3864,7 @@
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60453562422614726</v>
+        <v>0.57772484495718535</v>
       </c>
       <c r="B85" s="2">
         <v>263</v>
@@ -3885,7 +3885,7 @@
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74856649495292338</v>
+        <v>0.71507936237289982</v>
       </c>
       <c r="B86" s="2">
         <v>100</v>
@@ -3909,7 +3909,7 @@
     <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8693224144502039E-2</v>
+        <v>7.4410899231080019E-2</v>
       </c>
       <c r="B87" s="2">
         <v>87</v>
@@ -3933,7 +3933,7 @@
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46058746571883824</v>
+        <v>0.67933021600806209</v>
       </c>
       <c r="B88" s="2">
         <v>57</v>
@@ -3957,7 +3957,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65954936451091661</v>
+        <v>0.36005202735545616</v>
       </c>
       <c r="B89" s="2">
         <v>262</v>
@@ -3978,7 +3978,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5678973870747179E-2</v>
+        <v>0.1888617627587148</v>
       </c>
       <c r="B90" s="2">
         <v>130</v>
@@ -4002,7 +4002,7 @@
     <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57999978833090637</v>
+        <v>0.75710161002521148</v>
       </c>
       <c r="B91" s="2">
         <v>26</v>
@@ -4026,7 +4026,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39665254218116019</v>
+        <v>0.94582047898967214</v>
       </c>
       <c r="B92" s="2">
         <v>309</v>
@@ -4050,7 +4050,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92873117568202956</v>
+        <v>0.8065064463991457</v>
       </c>
       <c r="B93" s="2">
         <v>85</v>
@@ -4071,7 +4071,7 @@
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48258928793543221</v>
+        <v>0.94496891563906971</v>
       </c>
       <c r="B94" s="2">
         <v>88</v>
@@ -4092,7 +4092,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66242244958879037</v>
+        <v>0.26281725669040013</v>
       </c>
       <c r="B95" s="2">
         <v>91</v>
@@ -4119,7 +4119,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42851365116909712</v>
+        <v>0.2138903128666787</v>
       </c>
       <c r="B96" s="2">
         <v>109</v>
@@ -4143,7 +4143,7 @@
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22918601290141782</v>
+        <v>6.1621212531817959E-2</v>
       </c>
       <c r="B97" s="2">
         <v>273</v>
@@ -4164,7 +4164,7 @@
     <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39440126788088348</v>
+        <v>0.75366512978625788</v>
       </c>
       <c r="B98" s="2">
         <v>46</v>
@@ -4188,7 +4188,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0006329879792357E-2</v>
+        <v>0.72367772332437941</v>
       </c>
       <c r="B99" s="2">
         <v>117</v>
@@ -4215,7 +4215,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35707595792185809</v>
+        <v>0.21517673602612708</v>
       </c>
       <c r="B100" s="2">
         <v>305</v>
@@ -4239,7 +4239,7 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95764180432055401</v>
+        <v>0.1361712298229536</v>
       </c>
       <c r="B101" s="2">
         <v>96</v>
@@ -4260,7 +4260,7 @@
     <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29511145195474331</v>
+        <v>2.6529294914863333E-2</v>
       </c>
       <c r="B102" s="2">
         <v>104</v>
@@ -4281,7 +4281,7 @@
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2573139230687751</v>
+        <v>0.28231876278819656</v>
       </c>
       <c r="B103" s="2">
         <v>113</v>
@@ -4302,7 +4302,7 @@
     <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17057824718915027</v>
+        <v>0.45203353117756062</v>
       </c>
       <c r="B104" s="2">
         <v>50</v>
@@ -4323,7 +4323,7 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8772933723150369</v>
+        <v>0.7596411719772469</v>
       </c>
       <c r="B105" s="2">
         <v>147</v>
@@ -4344,7 +4344,7 @@
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1200294430619836</v>
+        <v>4.4851534265879622E-2</v>
       </c>
       <c r="B106" s="2">
         <v>257</v>
@@ -4365,7 +4365,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34885415232357297</v>
+        <v>0.54941561898794378</v>
       </c>
       <c r="B107" s="2">
         <v>256</v>
@@ -4389,7 +4389,7 @@
     <row r="108" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91681956548488852</v>
+        <v>0.68612465576859916</v>
       </c>
       <c r="B108" s="2">
         <v>174</v>
@@ -4413,7 +4413,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8924029978510436</v>
+        <v>0.18030282535862441</v>
       </c>
       <c r="B109" s="2">
         <v>248</v>
@@ -4437,7 +4437,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22064963428810547</v>
+        <v>0.83645539825518944</v>
       </c>
       <c r="B110" s="2">
         <v>33</v>
@@ -4461,7 +4461,7 @@
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69027750176702307</v>
+        <v>0.48019055231639074</v>
       </c>
       <c r="B111" s="2">
         <v>246</v>
@@ -4482,7 +4482,7 @@
     <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49486117347155534</v>
+        <v>0.94775781232751344</v>
       </c>
       <c r="B112" s="2">
         <v>27</v>
@@ -4506,7 +4506,7 @@
     <row r="113" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69065176067421608</v>
+        <v>0.43175208386328778</v>
       </c>
       <c r="B113" s="2">
         <v>9</v>
@@ -4530,7 +4530,7 @@
     <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62164334540323374</v>
+        <v>0.89161346177960088</v>
       </c>
       <c r="B114" s="2">
         <v>306</v>
@@ -4554,7 +4554,7 @@
     <row r="115" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7725067658866953E-3</v>
+        <v>0.62684105745208174</v>
       </c>
       <c r="B115" s="2">
         <v>311</v>
@@ -4578,7 +4578,7 @@
     <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99610390974430618</v>
+        <v>0.70833710729832977</v>
       </c>
       <c r="B116" s="2">
         <v>242</v>
@@ -4599,7 +4599,7 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2371910504875776</v>
+        <v>0.59243267165307012</v>
       </c>
       <c r="B117" s="2">
         <v>148</v>
@@ -4623,7 +4623,7 @@
     <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6142647536540071E-3</v>
+        <v>0.10482011436232919</v>
       </c>
       <c r="B118" s="2">
         <v>19</v>
@@ -4644,7 +4644,7 @@
     <row r="119" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67533518319708286</v>
+        <v>0.6681212091119092</v>
       </c>
       <c r="B119" s="2">
         <v>199</v>
@@ -4665,7 +4665,7 @@
     <row r="120" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45486050373377007</v>
+        <v>0.73796627868756359</v>
       </c>
       <c r="B120" s="2">
         <v>225</v>
@@ -4686,7 +4686,7 @@
     <row r="121" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36067055453646291</v>
+        <v>0.93489137302566583</v>
       </c>
       <c r="B121" s="2">
         <v>178</v>
@@ -4710,7 +4710,7 @@
     <row r="122" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81695562221021989</v>
+        <v>0.22729902872342433</v>
       </c>
       <c r="B122" s="2">
         <v>58</v>
@@ -4734,7 +4734,7 @@
     <row r="123" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32213683950563132</v>
+        <v>0.60311746025618063</v>
       </c>
       <c r="B123" s="2">
         <v>308</v>
@@ -4755,7 +4755,7 @@
     <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23928068899231636</v>
+        <v>0.20927809011075404</v>
       </c>
       <c r="B124" s="2">
         <v>282</v>
@@ -4779,7 +4779,7 @@
     <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76342717681792194</v>
+        <v>0.70854015040876117</v>
       </c>
       <c r="B125" s="2">
         <v>196</v>
@@ -4800,7 +4800,7 @@
     <row r="126" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78046415332172836</v>
+        <v>0.63452806662106775</v>
       </c>
       <c r="B126" s="2">
         <v>25</v>
@@ -4821,7 +4821,7 @@
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67722881780581923</v>
+        <v>0.88356717062183432</v>
       </c>
       <c r="B127" s="2">
         <v>122</v>
@@ -4842,7 +4842,7 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83121033807710654</v>
+        <v>0.64937787077646203</v>
       </c>
       <c r="B128" s="2">
         <v>118</v>
@@ -4866,7 +4866,7 @@
     <row r="129" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59119595254709745</v>
+        <v>0.68416582367187551</v>
       </c>
       <c r="B129" s="2">
         <v>200</v>
@@ -4893,7 +4893,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.18964761153282872</v>
+        <v>0.5326730207393261</v>
       </c>
       <c r="B130" s="2">
         <v>98</v>
@@ -4917,7 +4917,7 @@
     <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68164255109522709</v>
+        <v>0.65132052229525239</v>
       </c>
       <c r="B131" s="2">
         <v>215</v>
@@ -4941,7 +4941,7 @@
     <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8690227600763847E-2</v>
+        <v>0.30267076537978144</v>
       </c>
       <c r="B132" s="2">
         <v>194</v>
@@ -4962,7 +4962,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2495244047281462E-2</v>
+        <v>0.71026880691200101</v>
       </c>
       <c r="B133" s="2">
         <v>284</v>
@@ -4986,7 +4986,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6559838129649238E-2</v>
+        <v>0.52207405335295198</v>
       </c>
       <c r="B134" s="2">
         <v>49</v>
@@ -5010,7 +5010,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55787470411774553</v>
+        <v>0.50451525298465216</v>
       </c>
       <c r="B135" s="2">
         <v>296</v>
@@ -5031,7 +5031,7 @@
     <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.263789003278053E-2</v>
+        <v>0.31288979644640347</v>
       </c>
       <c r="B136" s="2">
         <v>77</v>
@@ -5052,7 +5052,7 @@
     <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12769003861479855</v>
+        <v>0.82894396591105324</v>
       </c>
       <c r="B137" s="2">
         <v>280</v>
@@ -5073,7 +5073,7 @@
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76098642265295813</v>
+        <v>0.48514712760012091</v>
       </c>
       <c r="B138" s="2">
         <v>106</v>
@@ -5094,7 +5094,7 @@
     <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8500883375280561E-2</v>
+        <v>0.92246188133785922</v>
       </c>
       <c r="B139" s="2">
         <v>299</v>
@@ -5115,7 +5115,7 @@
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99955416391208163</v>
+        <v>0.95459655155048184</v>
       </c>
       <c r="B140" s="2">
         <v>73</v>
@@ -5139,7 +5139,7 @@
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37185192352544405</v>
+        <v>0.76240269218948631</v>
       </c>
       <c r="B141" s="2">
         <v>52</v>
@@ -5160,7 +5160,7 @@
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38294442511529947</v>
+        <v>0.45123312694352791</v>
       </c>
       <c r="B142" s="2">
         <v>139</v>
@@ -5184,7 +5184,7 @@
     <row r="143" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14489088691554652</v>
+        <v>0.31762993515231419</v>
       </c>
       <c r="B143" s="2">
         <v>187</v>
@@ -5205,7 +5205,7 @@
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50607675646558326</v>
+        <v>0.56545634052186855</v>
       </c>
       <c r="B144" s="2">
         <v>142</v>
@@ -5226,7 +5226,7 @@
     <row r="145" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15596872835635167</v>
+        <v>0.42333544190404526</v>
       </c>
       <c r="B145" s="2">
         <v>179</v>
@@ -5250,7 +5250,7 @@
     <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71928308834942656</v>
+        <v>0.10477219306312624</v>
       </c>
       <c r="B146" s="2">
         <v>285</v>
@@ -5274,7 +5274,7 @@
     <row r="147" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85395587113310878</v>
+        <v>0.1939718532161453</v>
       </c>
       <c r="B147" s="2">
         <v>232</v>
@@ -5295,7 +5295,7 @@
     <row r="148" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84618887488187289</v>
+        <v>0.85714302912292628</v>
       </c>
       <c r="B148" s="2">
         <v>291</v>
@@ -5319,7 +5319,7 @@
     <row r="149" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95531348145918116</v>
+        <v>0.35023935567496511</v>
       </c>
       <c r="B149" s="2">
         <v>209</v>
@@ -5340,7 +5340,7 @@
     <row r="150" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35875915160910532</v>
+        <v>0.20829290953690294</v>
       </c>
       <c r="B150" s="2">
         <v>264</v>
@@ -5364,7 +5364,7 @@
     <row r="151" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20939930861013101</v>
+        <v>0.18055562606184272</v>
       </c>
       <c r="B151" s="2">
         <v>224</v>
@@ -5385,7 +5385,7 @@
     <row r="152" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6926430258345002E-2</v>
+        <v>0.53522334071762712</v>
       </c>
       <c r="B152" s="2">
         <v>136</v>
@@ -5406,7 +5406,7 @@
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93178671878491826</v>
+        <v>0.44290679275757949</v>
       </c>
       <c r="B153" s="2">
         <v>92</v>
@@ -5427,7 +5427,7 @@
     <row r="154" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83513491280995866</v>
+        <v>0.81277910577428969</v>
       </c>
       <c r="B154" s="2">
         <v>241</v>
@@ -5451,7 +5451,7 @@
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73568005241156142</v>
+        <v>0.19105296816620798</v>
       </c>
       <c r="B155" s="2">
         <v>72</v>
@@ -5475,7 +5475,7 @@
     <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44297577822353762</v>
+        <v>0.47202160471150212</v>
       </c>
       <c r="B156" s="2">
         <v>243</v>
@@ -5499,7 +5499,7 @@
     <row r="157" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10831828018698042</v>
+        <v>0.46140851259975657</v>
       </c>
       <c r="B157" s="2">
         <v>185</v>
@@ -5523,7 +5523,7 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25139136502081716</v>
+        <v>0.63720503089024161</v>
       </c>
       <c r="B158" s="2">
         <v>272</v>
@@ -5544,7 +5544,7 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48284481461336615</v>
+        <v>0.52785144821761054</v>
       </c>
       <c r="B159" s="2">
         <v>288</v>
@@ -5565,7 +5565,7 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8456566780823782E-2</v>
+        <v>0.18125124919083668</v>
       </c>
       <c r="B160" s="2">
         <v>129</v>
@@ -5586,7 +5586,7 @@
     <row r="161" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12654335285769591</v>
+        <v>0.83328254037047167</v>
       </c>
       <c r="B161" s="2">
         <v>233</v>
@@ -5607,7 +5607,7 @@
     <row r="162" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95541223489186367</v>
+        <v>4.0092165799913038E-2</v>
       </c>
       <c r="B162" s="2">
         <v>251</v>
@@ -5628,7 +5628,7 @@
     <row r="163" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97379575633489601</v>
+        <v>0.8490776353256585</v>
       </c>
       <c r="B163" s="2">
         <v>102</v>
@@ -5652,7 +5652,7 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43432579172934194</v>
+        <v>0.256529590789359</v>
       </c>
       <c r="B164" s="2">
         <v>277</v>
@@ -5673,7 +5673,7 @@
     <row r="165" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79527648205100177</v>
+        <v>0.7482740049402411</v>
       </c>
       <c r="B165" s="2">
         <v>294</v>
@@ -5694,7 +5694,7 @@
     <row r="166" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75207490726653359</v>
+        <v>0.52511969655355428</v>
       </c>
       <c r="B166" s="2">
         <v>186</v>
@@ -5718,7 +5718,7 @@
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65744678698734504</v>
+        <v>0.62098805278549984</v>
       </c>
       <c r="B167" s="2">
         <v>193</v>
@@ -5739,7 +5739,7 @@
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85855604848388867</v>
+        <v>2.3208313456849594E-2</v>
       </c>
       <c r="B168" s="2">
         <v>95</v>
@@ -5763,7 +5763,7 @@
     <row r="169" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48397746172989198</v>
+        <v>0.27705798512292523</v>
       </c>
       <c r="B169" s="2">
         <v>208</v>
@@ -5787,7 +5787,7 @@
     <row r="170" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19171691935412327</v>
+        <v>0.41752034732069698</v>
       </c>
       <c r="B170" s="2">
         <v>3</v>
@@ -5808,7 +5808,7 @@
     <row r="171" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8615833857357451E-2</v>
+        <v>0.27174538280507343</v>
       </c>
       <c r="B171" s="2">
         <v>177</v>
@@ -5829,7 +5829,7 @@
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30083863110248121</v>
+        <v>8.101190222190513E-2</v>
       </c>
       <c r="B172" s="2">
         <v>312</v>
@@ -5850,7 +5850,7 @@
     <row r="173" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5310757276106971</v>
+        <v>1.364955953835123E-2</v>
       </c>
       <c r="B173" s="2">
         <v>13</v>
@@ -5871,7 +5871,7 @@
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38074557230592099</v>
+        <v>0.70750367922989477</v>
       </c>
       <c r="B174" s="2">
         <v>155</v>
@@ -5892,7 +5892,7 @@
     <row r="175" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16691910318540648</v>
+        <v>0.63736103551163614</v>
       </c>
       <c r="B175" s="2">
         <v>300</v>
@@ -5913,7 +5913,7 @@
     <row r="176" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54653026167230512</v>
+        <v>0.42237087553328978</v>
       </c>
       <c r="B176" s="2">
         <v>169</v>
@@ -5934,7 +5934,7 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16633295985379026</v>
+        <v>0.95759595578992263</v>
       </c>
       <c r="B177" s="2">
         <v>121</v>
@@ -5955,7 +5955,7 @@
     <row r="178" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0907627369208277E-2</v>
+        <v>0.25124960802937113</v>
       </c>
       <c r="B178" s="2">
         <v>137</v>
@@ -5979,7 +5979,7 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62701215806280675</v>
+        <v>0.86080577497868849</v>
       </c>
       <c r="B179" s="2">
         <v>167</v>
@@ -6003,7 +6003,7 @@
     <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3945076771094946E-2</v>
+        <v>0.19710843595774807</v>
       </c>
       <c r="B180" s="2">
         <v>206</v>
@@ -6027,7 +6027,7 @@
     <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22201563634933585</v>
+        <v>0.1720350565157216</v>
       </c>
       <c r="B181" s="2">
         <v>119</v>
@@ -6051,7 +6051,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7549357431863648</v>
+        <v>0.11899880645801431</v>
       </c>
       <c r="B182" s="2">
         <v>253</v>
@@ -6072,7 +6072,7 @@
     <row r="183" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47955041834673573</v>
+        <v>0.52097799764947628</v>
       </c>
       <c r="B183" s="2">
         <v>114</v>
@@ -6093,7 +6093,7 @@
     <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72621411941854574</v>
+        <v>0.99037356143681921</v>
       </c>
       <c r="B184" s="2">
         <v>80</v>
@@ -6120,7 +6120,7 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44337152567905758</v>
+        <v>0.23707293106693239</v>
       </c>
       <c r="B185" s="2">
         <v>313</v>
@@ -6141,7 +6141,7 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43006263785525622</v>
+        <v>0.88387563471341601</v>
       </c>
       <c r="B186" s="2">
         <v>18</v>
@@ -6162,7 +6162,7 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91438479222270985</v>
+        <v>0.43160559465360304</v>
       </c>
       <c r="B187" s="2">
         <v>54</v>
@@ -6186,7 +6186,7 @@
     <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77699197064199876</v>
+        <v>9.3784634941483702E-2</v>
       </c>
       <c r="B188" s="2">
         <v>211</v>
@@ -6207,7 +6207,7 @@
     <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46501777979194503</v>
+        <v>0.97658796888763511</v>
       </c>
       <c r="B189" s="2">
         <v>143</v>
@@ -6231,7 +6231,7 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35535583258141257</v>
+        <v>0.82235179851165185</v>
       </c>
       <c r="B190" s="2">
         <v>125</v>
@@ -6252,7 +6252,7 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0235992308413682E-2</v>
+        <v>0.26357318959209397</v>
       </c>
       <c r="B191" s="2">
         <v>162</v>
@@ -6273,7 +6273,7 @@
     <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58327119047746223</v>
+        <v>0.8252979810309371</v>
       </c>
       <c r="B192" s="2">
         <v>279</v>
@@ -6294,7 +6294,7 @@
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43909471969022063</v>
+        <v>0.90764917599621098</v>
       </c>
       <c r="B193" s="2">
         <v>128</v>
@@ -6315,7 +6315,7 @@
     <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.61283894673802053</v>
+        <v>5.3781828594923087E-2</v>
       </c>
       <c r="B194" s="2">
         <v>240</v>
@@ -6339,7 +6339,7 @@
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71248541374956242</v>
+        <v>0.7345982436180456</v>
       </c>
       <c r="B195" s="2">
         <v>150</v>
@@ -6360,7 +6360,7 @@
     <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66288709971046</v>
+        <v>5.1103012752190424E-2</v>
       </c>
       <c r="B196" s="2">
         <v>283</v>
@@ -6381,7 +6381,7 @@
     <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83105712717641156</v>
+        <v>0.80070620696729444</v>
       </c>
       <c r="B197" s="2">
         <v>274</v>
@@ -6402,7 +6402,7 @@
     <row r="198" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74970210058959674</v>
+        <v>0.25527576168680277</v>
       </c>
       <c r="B198" s="2">
         <v>269</v>
@@ -6426,7 +6426,7 @@
     <row r="199" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78856249021527958</v>
+        <v>0.76369882334902039</v>
       </c>
       <c r="B199" s="2">
         <v>101</v>
@@ -6447,7 +6447,7 @@
     <row r="200" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63580506009208992</v>
+        <v>0.22636475978463844</v>
       </c>
       <c r="B200" s="2">
         <v>226</v>
@@ -6468,7 +6468,7 @@
     <row r="201" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47759342826721118</v>
+        <v>0.62537416939220869</v>
       </c>
       <c r="B201" s="2">
         <v>231</v>
@@ -6489,7 +6489,7 @@
     <row r="202" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15906457828873577</v>
+        <v>0.87062233842521231</v>
       </c>
       <c r="B202" s="2">
         <v>195</v>
@@ -6510,7 +6510,7 @@
     <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1869398807631274</v>
+        <v>0.73284223847544605</v>
       </c>
       <c r="B203" s="2">
         <v>134</v>
@@ -6534,7 +6534,7 @@
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56560592137350651</v>
+        <v>5.7756516589005824E-2</v>
       </c>
       <c r="B204" s="2">
         <v>34</v>
@@ -6555,7 +6555,7 @@
     <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86568337265475215</v>
+        <v>0.25208523361256729</v>
       </c>
       <c r="B205" s="2">
         <v>183</v>
@@ -6576,7 +6576,7 @@
     <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43671089757076809</v>
+        <v>2.3529780913590481E-2</v>
       </c>
       <c r="B206" s="2">
         <v>166</v>
@@ -6600,7 +6600,7 @@
     <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46490389659073061</v>
+        <v>0.12595146913528377</v>
       </c>
       <c r="B207" s="2">
         <v>265</v>
@@ -6624,7 +6624,7 @@
     <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34842100687945043</v>
+        <v>0.43291713883704586</v>
       </c>
       <c r="B208" s="2">
         <v>173</v>
@@ -6648,7 +6648,7 @@
     <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84675461091831616</v>
+        <v>0.24665489829081255</v>
       </c>
       <c r="B209" s="2">
         <v>45</v>
@@ -6669,7 +6669,7 @@
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86703214027254227</v>
+        <v>0.40158980896921614</v>
       </c>
       <c r="B210" s="2">
         <v>62</v>
@@ -6690,7 +6690,7 @@
     <row r="211" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7487948441573884</v>
+        <v>0.5979524039934675</v>
       </c>
       <c r="B211" s="2">
         <v>135</v>
@@ -6714,7 +6714,7 @@
     <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5969854901033691</v>
+        <v>0.46443354865962616</v>
       </c>
       <c r="B212" s="2">
         <v>40</v>
@@ -6738,7 +6738,7 @@
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92231845506239618</v>
+        <v>0.15912156849397185</v>
       </c>
       <c r="B213" s="2">
         <v>304</v>
@@ -6762,7 +6762,7 @@
     <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12347292230906259</v>
+        <v>3.0731239773452379E-2</v>
       </c>
       <c r="B214" s="2">
         <v>252</v>
@@ -6783,7 +6783,7 @@
     <row r="215" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30899731619041182</v>
+        <v>0.21561268252204824</v>
       </c>
       <c r="B215" s="2">
         <v>20</v>
@@ -6807,7 +6807,7 @@
     <row r="216" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26019429435861519</v>
+        <v>0.48340331115548041</v>
       </c>
       <c r="B216" s="2">
         <v>198</v>
@@ -6828,7 +6828,7 @@
     <row r="217" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60526321564325614</v>
+        <v>4.6134325205571702E-2</v>
       </c>
       <c r="B217" s="2">
         <v>267</v>
@@ -6849,7 +6849,7 @@
     <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95490041970943706</v>
+        <v>0.608125206155534</v>
       </c>
       <c r="B218" s="2">
         <v>295</v>
@@ -6873,7 +6873,7 @@
     <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55797362410509199</v>
+        <v>0.87922266492349721</v>
       </c>
       <c r="B219" s="2">
         <v>182</v>
@@ -6897,7 +6897,7 @@
     <row r="220" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31680600716563068</v>
+        <v>0.1039287801634009</v>
       </c>
       <c r="B220" s="2">
         <v>99</v>
@@ -6918,7 +6918,7 @@
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99053034001381413</v>
+        <v>0.64131697246423514</v>
       </c>
       <c r="B221" s="2">
         <v>123</v>
@@ -6942,7 +6942,7 @@
     <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64421170007105688</v>
+        <v>0.98267772364775896</v>
       </c>
       <c r="B222" s="2">
         <v>249</v>
@@ -6963,7 +6963,7 @@
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67385110696838357</v>
+        <v>7.6034481982255708E-2</v>
       </c>
       <c r="B223" s="2">
         <v>70</v>
@@ -6987,7 +6987,7 @@
     <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9834961939224286</v>
+        <v>0.33008658878184172</v>
       </c>
       <c r="B224" s="2">
         <v>12</v>
@@ -7008,7 +7008,7 @@
     <row r="225" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46806605977754978</v>
+        <v>0.96140820418534056</v>
       </c>
       <c r="B225" s="2">
         <v>223</v>
@@ -7029,7 +7029,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82677713131616037</v>
+        <v>0.99155759672972354</v>
       </c>
       <c r="B226" s="2">
         <v>287</v>
@@ -7050,7 +7050,7 @@
     <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76478816383956683</v>
+        <v>0.29513314527706402</v>
       </c>
       <c r="B227" s="2">
         <v>5</v>
@@ -7074,7 +7074,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50760781556488022</v>
+        <v>0.65505077943205958</v>
       </c>
       <c r="B228" s="2">
         <v>68</v>
@@ -7095,7 +7095,7 @@
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25098773790586892</v>
+        <v>4.4759167967022728E-2</v>
       </c>
       <c r="B229" s="2">
         <v>190</v>
@@ -7116,7 +7116,7 @@
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12978370015213481</v>
+        <v>0.73038026706018</v>
       </c>
       <c r="B230" s="2">
         <v>207</v>
@@ -7137,7 +7137,7 @@
     <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13203901005144569</v>
+        <v>0.21079898307037859</v>
       </c>
       <c r="B231" s="2">
         <v>89</v>
@@ -7161,7 +7161,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59208500565962408</v>
+        <v>0.71137307787490167</v>
       </c>
       <c r="B232" s="2">
         <v>140</v>
@@ -7182,7 +7182,7 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17527107914434192</v>
+        <v>0.37989436810799004</v>
       </c>
       <c r="B233" s="2">
         <v>94</v>
@@ -7209,7 +7209,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4510853605071341</v>
+        <v>0.89588224627739244</v>
       </c>
       <c r="B234" s="2">
         <v>234</v>
@@ -7230,7 +7230,7 @@
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74988057323547685</v>
+        <v>0.28327075604928931</v>
       </c>
       <c r="B235" s="2">
         <v>184</v>
@@ -7251,7 +7251,7 @@
     <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51651315063614456</v>
+        <v>0.91246905883445095</v>
       </c>
       <c r="B236" s="2">
         <v>159</v>
@@ -7275,7 +7275,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73391647750364086</v>
+        <v>0.77875498748476168</v>
       </c>
       <c r="B237" s="2">
         <v>132</v>
@@ -7296,7 +7296,7 @@
     <row r="238" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87198818152340285</v>
+        <v>0.20506862871410925</v>
       </c>
       <c r="B238" s="2">
         <v>191</v>
@@ -7317,7 +7317,7 @@
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16974542288823979</v>
+        <v>0.50126037176869731</v>
       </c>
       <c r="B239" s="2">
         <v>168</v>
@@ -7338,7 +7338,7 @@
     <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11744866975758628</v>
+        <v>0.53909063929092915</v>
       </c>
       <c r="B240" s="2">
         <v>56</v>
@@ -7362,7 +7362,7 @@
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41235185653986006</v>
+        <v>0.39844695797972485</v>
       </c>
       <c r="B241" s="2">
         <v>298</v>
@@ -7386,7 +7386,7 @@
     <row r="242" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6618470219853223E-2</v>
+        <v>0.44367882347732979</v>
       </c>
       <c r="B242" s="2">
         <v>216</v>
@@ -7407,7 +7407,7 @@
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68184041110664928</v>
+        <v>0.87800477169768842</v>
       </c>
       <c r="B243" s="2">
         <v>146</v>
@@ -7428,7 +7428,7 @@
     <row r="244" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92504494476816601</v>
+        <v>3.7094061138295276E-2</v>
       </c>
       <c r="B244" s="2">
         <v>258</v>
@@ -7449,7 +7449,7 @@
     <row r="245" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19847040028628415</v>
+        <v>0.33928625631345344</v>
       </c>
       <c r="B245" s="2">
         <v>303</v>
@@ -7470,7 +7470,7 @@
     <row r="246" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37942732515734789</v>
+        <v>0.70375993631420719</v>
       </c>
       <c r="B246" s="2">
         <v>36</v>
@@ -7491,7 +7491,7 @@
     <row r="247" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41326690124823506</v>
+        <v>0.73253166696865679</v>
       </c>
       <c r="B247" s="2">
         <v>281</v>
@@ -7512,7 +7512,7 @@
     <row r="248" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.605355170459279</v>
+        <v>0.22871081412878203</v>
       </c>
       <c r="B248" s="2">
         <v>250</v>
@@ -7533,7 +7533,7 @@
     <row r="249" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66445460299260184</v>
+        <v>0.80227792354903038</v>
       </c>
       <c r="B249" s="2">
         <v>227</v>
@@ -7554,7 +7554,7 @@
     <row r="250" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81680914465104182</v>
+        <v>0.25906971605529583</v>
       </c>
       <c r="B250" s="2">
         <v>293</v>
@@ -7578,7 +7578,7 @@
     <row r="251" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5220013446575108</v>
+        <v>0.2570281569247177</v>
       </c>
       <c r="B251" s="2">
         <v>192</v>
@@ -7599,7 +7599,7 @@
     <row r="252" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67597176138619475</v>
+        <v>0.96404188878810793</v>
       </c>
       <c r="B252" s="2">
         <v>4</v>
@@ -7620,7 +7620,7 @@
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89180623173451556</v>
+        <v>0.44836605650661887</v>
       </c>
       <c r="B253" s="2">
         <v>97</v>
@@ -7641,7 +7641,7 @@
     <row r="254" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34859633260447465</v>
+        <v>0.73385678024216883</v>
       </c>
       <c r="B254" s="2">
         <v>302</v>
@@ -7665,7 +7665,7 @@
     <row r="255" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92089943258543072</v>
+        <v>0.74203194090304314</v>
       </c>
       <c r="B255" s="2">
         <v>222</v>
@@ -7686,7 +7686,7 @@
     <row r="256" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95925708993879433</v>
+        <v>0.50272987708050554</v>
       </c>
       <c r="B256" s="2">
         <v>220</v>
@@ -7710,7 +7710,7 @@
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38639705715713446</v>
+        <v>4.0631214775599056E-2</v>
       </c>
       <c r="B257" s="2">
         <v>103</v>
@@ -7731,7 +7731,7 @@
     <row r="258" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A316" ca="1" si="4">RAND()</f>
-        <v>0.12943248065962121</v>
+        <v>5.2233415065685906E-2</v>
       </c>
       <c r="B258" s="2">
         <v>75</v>
@@ -7755,7 +7755,7 @@
     <row r="259" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60030336888498326</v>
+        <v>0.83397634452120806</v>
       </c>
       <c r="B259" s="2">
         <v>217</v>
@@ -7776,7 +7776,7 @@
     <row r="260" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5414190222205767</v>
+        <v>0.85704918204304192</v>
       </c>
       <c r="B260" s="2">
         <v>266</v>
@@ -7800,7 +7800,7 @@
     <row r="261" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17000666749145399</v>
+        <v>0.70514687532392972</v>
       </c>
       <c r="B261" s="2">
         <v>188</v>
@@ -7821,7 +7821,7 @@
     <row r="262" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25201283123080531</v>
+        <v>0.17380380172948695</v>
       </c>
       <c r="B262" s="2">
         <v>7</v>
@@ -7845,7 +7845,7 @@
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30214850913473812</v>
+        <v>0.16381439600494407</v>
       </c>
       <c r="B263" s="2">
         <v>151</v>
@@ -7869,7 +7869,7 @@
     <row r="264" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75075378994733777</v>
+        <v>0.12819931496888548</v>
       </c>
       <c r="B264" s="2">
         <v>141</v>
@@ -7890,7 +7890,7 @@
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1533014532184267E-2</v>
+        <v>0.88233517210567303</v>
       </c>
       <c r="B265" s="2">
         <v>42</v>
@@ -7911,7 +7911,7 @@
     <row r="266" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49049392711892081</v>
+        <v>0.82252122264868388</v>
       </c>
       <c r="B266" s="2">
         <v>244</v>
@@ -7944,7 +7944,7 @@
     <row r="267" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10945204320299751</v>
+        <v>6.6154206707191521E-2</v>
       </c>
       <c r="B267" s="2">
         <v>66</v>
@@ -7968,7 +7968,7 @@
     <row r="268" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60128083523213505</v>
+        <v>0.94554312202588686</v>
       </c>
       <c r="B268" s="2">
         <v>236</v>
@@ -7992,7 +7992,7 @@
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63334282412873344</v>
+        <v>0.71875926553224789</v>
       </c>
       <c r="B269" s="2">
         <v>254</v>
@@ -8016,7 +8016,7 @@
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9695951493530035</v>
+        <v>0.34182896731285761</v>
       </c>
       <c r="B270" s="2">
         <v>79</v>
@@ -8040,7 +8040,7 @@
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31603934919215637</v>
+        <v>0.63834664924629869</v>
       </c>
       <c r="B271" s="2">
         <v>154</v>
@@ -8061,7 +8061,7 @@
     <row r="272" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21209953448543228</v>
+        <v>0.67100156252896359</v>
       </c>
       <c r="B272" s="2">
         <v>65</v>
@@ -8085,7 +8085,7 @@
     <row r="273" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4418512411351273</v>
+        <v>0.6313951295366752</v>
       </c>
       <c r="B273" s="2">
         <v>144</v>
@@ -8109,7 +8109,7 @@
     <row r="274" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49412516102043691</v>
+        <v>0.37658484211513288</v>
       </c>
       <c r="B274" s="2">
         <v>22</v>
@@ -8130,7 +8130,7 @@
     <row r="275" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60203757029136018</v>
+        <v>0.67214292292552758</v>
       </c>
       <c r="B275" s="2">
         <v>278</v>
@@ -8154,7 +8154,7 @@
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0058175935866922E-2</v>
+        <v>0.24047318661276551</v>
       </c>
       <c r="B276" s="2">
         <v>149</v>
@@ -8178,7 +8178,7 @@
     <row r="277" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.317441427746906E-2</v>
+        <v>0.48348467886830315</v>
       </c>
       <c r="B277" s="2">
         <v>2</v>
@@ -8199,7 +8199,7 @@
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8094874238073213</v>
+        <v>0.32998403687809696</v>
       </c>
       <c r="B278" s="2">
         <v>78</v>
@@ -8223,7 +8223,7 @@
     <row r="279" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77668268336913238</v>
+        <v>0.7488970437247815</v>
       </c>
       <c r="B279" s="2">
         <v>271</v>
@@ -8247,7 +8247,7 @@
     <row r="280" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33300349330921986</v>
+        <v>8.2668575823935053E-2</v>
       </c>
       <c r="B280" s="2">
         <v>164</v>
@@ -8271,7 +8271,7 @@
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38445092879138421</v>
+        <v>0.62701197403824549</v>
       </c>
       <c r="B281" s="2">
         <v>93</v>
@@ -8295,7 +8295,7 @@
     <row r="282" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0147667507349807E-3</v>
+        <v>0.77573797148324952</v>
       </c>
       <c r="B282" s="2">
         <v>31</v>
@@ -8319,7 +8319,7 @@
     <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10875542760398882</v>
+        <v>0.92286191600456158</v>
       </c>
       <c r="B283" s="2">
         <v>310</v>
@@ -8343,7 +8343,7 @@
     <row r="284" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8321591837699529</v>
+        <v>0.32652776859547405</v>
       </c>
       <c r="B284" s="2">
         <v>15</v>
@@ -8367,7 +8367,7 @@
     <row r="285" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67842664068926561</v>
+        <v>0.77698557736288199</v>
       </c>
       <c r="B285" s="2">
         <v>64</v>
@@ -8391,7 +8391,7 @@
     <row r="286" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96608562081280591</v>
+        <v>1.5908011822709511E-3</v>
       </c>
       <c r="B286" s="2">
         <v>205</v>
@@ -8412,7 +8412,7 @@
     <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38493666921181791</v>
+        <v>0.22570253063478485</v>
       </c>
       <c r="B287" s="2">
         <v>315</v>
@@ -8436,7 +8436,7 @@
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7841330050513432</v>
+        <v>0.39909594856878661</v>
       </c>
       <c r="B288" s="2">
         <v>17</v>
@@ -8457,7 +8457,7 @@
     <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47151761910037915</v>
+        <v>0.44637023306874513</v>
       </c>
       <c r="B289" s="2">
         <v>48</v>
@@ -8478,7 +8478,7 @@
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1172086555628309E-2</v>
+        <v>0.42519475505284843</v>
       </c>
       <c r="B290" s="2">
         <v>212</v>
@@ -8499,7 +8499,7 @@
     <row r="291" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9932455876250178</v>
+        <v>0.53720560500386272</v>
       </c>
       <c r="B291" s="2">
         <v>238</v>
@@ -8526,7 +8526,7 @@
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27252176845211196</v>
+        <v>2.4064540332574325E-2</v>
       </c>
       <c r="B292" s="2">
         <v>29</v>
@@ -8550,7 +8550,7 @@
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83559099288663563</v>
+        <v>0.92380176697375049</v>
       </c>
       <c r="B293" s="2">
         <v>51</v>
@@ -8571,7 +8571,7 @@
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92690913536157549</v>
+        <v>0.26342575913305599</v>
       </c>
       <c r="B294" s="2">
         <v>124</v>
@@ -8595,7 +8595,7 @@
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98965525160127121</v>
+        <v>0.25370364531108247</v>
       </c>
       <c r="B295" s="2">
         <v>8</v>
@@ -8616,7 +8616,7 @@
     <row r="296" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30921442378035546</v>
+        <v>0.16277148944868924</v>
       </c>
       <c r="B296" s="2">
         <v>229</v>
@@ -8637,7 +8637,7 @@
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61215059592321619</v>
+        <v>0.36804012752663995</v>
       </c>
       <c r="B297" s="2">
         <v>55</v>
@@ -8661,7 +8661,7 @@
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67622325193797739</v>
+        <v>0.28454919543475687</v>
       </c>
       <c r="B298" s="2">
         <v>133</v>
@@ -8682,7 +8682,7 @@
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89825979206464146</v>
+        <v>0.23982091918985438</v>
       </c>
       <c r="B299" s="2">
         <v>290</v>
@@ -8706,7 +8706,7 @@
     <row r="300" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23326986899611746</v>
+        <v>0.74877090817165537</v>
       </c>
       <c r="B300" s="2">
         <v>165</v>
@@ -8727,7 +8727,7 @@
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83647032713713887</v>
+        <v>0.35566914612169021</v>
       </c>
       <c r="B301" s="2">
         <v>60</v>
@@ -8751,7 +8751,7 @@
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38963464478718368</v>
+        <v>0.71879886627990874</v>
       </c>
       <c r="B302" s="2">
         <v>41</v>
@@ -8772,7 +8772,7 @@
     <row r="303" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43857615545778028</v>
+        <v>0.81713698725440276</v>
       </c>
       <c r="B303" s="2">
         <v>307</v>
@@ -8796,7 +8796,7 @@
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91998111696115825</v>
+        <v>0.99598673762097067</v>
       </c>
       <c r="B304" s="2">
         <v>71</v>
@@ -8817,7 +8817,7 @@
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98823058401038155</v>
+        <v>0.39569740625784056</v>
       </c>
       <c r="B305" s="2">
         <v>247</v>
@@ -8841,7 +8841,7 @@
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.6149694038182947E-2</v>
+        <v>4.8206792805962184E-2</v>
       </c>
       <c r="B306" s="2">
         <v>120</v>
@@ -8862,7 +8862,7 @@
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59094056236637393</v>
+        <v>0.34252139475217247</v>
       </c>
       <c r="B307" s="2">
         <v>131</v>
@@ -8886,7 +8886,7 @@
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33586685840177077</v>
+        <v>0.27514691533937885</v>
       </c>
       <c r="B308" s="2">
         <v>53</v>
@@ -8907,7 +8907,7 @@
     <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81708565039178127</v>
+        <v>0.60036379942122853</v>
       </c>
       <c r="B309" s="2">
         <v>30</v>
@@ -8931,7 +8931,7 @@
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16291927459923794</v>
+        <v>0.23816073027396623</v>
       </c>
       <c r="B310" s="2">
         <v>69</v>
@@ -8958,7 +8958,7 @@
     <row r="311" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80131608204873028</v>
+        <v>0.18678273638091258</v>
       </c>
       <c r="B311" s="2">
         <v>47</v>
@@ -8979,7 +8979,7 @@
     <row r="312" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59957016167410315</v>
+        <v>0.86899292040611142</v>
       </c>
       <c r="B312" s="2">
         <v>21</v>
@@ -9000,7 +9000,7 @@
     <row r="313" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4640227959900054E-2</v>
+        <v>0.82113064402345159</v>
       </c>
       <c r="B313" s="2">
         <v>145</v>
@@ -9021,7 +9021,7 @@
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30335708736267442</v>
+        <v>0.23606800341759526</v>
       </c>
       <c r="B314" s="2">
         <v>126</v>
@@ -9045,7 +9045,7 @@
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50555086376010272</v>
+        <v>0.60222184941400558</v>
       </c>
       <c r="B315" s="2">
         <v>301</v>
@@ -9066,7 +9066,7 @@
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89877316903692195</v>
+        <v>0.17566274597265252</v>
       </c>
       <c r="B316" s="2">
         <v>76</v>
@@ -9309,7 +9309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+    <sheetView topLeftCell="A302" workbookViewId="0">
       <selection activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
